--- a/NB.xlsx
+++ b/NB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B37BB6-1E99-4882-B275-88F1DCAC28B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071CB00-9441-421C-8A48-F7DFE94A4D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2445" yWindow="3660" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,184 +25,1331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
-  <si>
-    <t>T台秀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾玉琳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>干子洋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐明哲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵芝瑜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄一博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟承颖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亦祁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘静恒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>假名媛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文东峻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*陈妍*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*陈世航*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡锦弘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*钟锦碧*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾哲轶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄宝杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢瑜宣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟丞翔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林睿希</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志榆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>追光者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖文景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任思仪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙梓君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗琳娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张镇谦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王煜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*杨伊菲*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴卓妮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任若诗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹翰明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张子谦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾熹泰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦傲柔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟华芹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#后勤#</t>
-  </si>
-  <si>
-    <t>曾钰林 桌子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈浩东 ？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈世航 搬运工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林睿希 ？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘艺 电子设备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#道具#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄瑞豪</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台秀</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《假名媛》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《追光者》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《少年》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后勤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《你最最最重要》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《哈利波特》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Peaty Saveage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《皇帝的新装》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《夜宴风泊》</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾钰琳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈妍</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟锦碧</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨伊菲</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾钰林</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桌子</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄瑞豪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜椿祺</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王涵萱</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>封馨雨</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄婧娴</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘宇雯</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干子洋</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈世航</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任思仪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王煜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈浩东</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾哲轶</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑茹方</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邱恩琪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵艺乔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐明哲</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文东峻</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙梓君</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张镇谦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈世航</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬运工</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邹杰思</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈嘉仪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐宝宁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闵达姮</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵芝瑜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡锦弘</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肖文景</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戴卓妮</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林睿希</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈嘉慧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡柏宏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄一博</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾哲轶</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵芝瑜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄宝杰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘艺</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子设备</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张家荟</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟承颖</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗琳娜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任若诗</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邹梓菁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李亦祁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢瑜宣</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邹翰明</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马雯迪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘静恒</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟丞翔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张子谦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←七</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班→</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢依晴</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林睿希</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾熹泰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋爱玲</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张志榆</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韦傲柔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑宇根</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟华芹</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王艺彤</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨茜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易宣佑</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +1357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +1404,76 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +1488,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,7 +1520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -308,8 +1528,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,20 +1540,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,211 +1835,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="16.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="6" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="K7" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071CB00-9441-421C-8A48-F7DFE94A4D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8FC70-D3D7-4625-80ED-47803AF50723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3015" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,6 +1550,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1835,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2204,6 +2210,17 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8FC70-D3D7-4625-80ED-47803AF50723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F163F337-6277-4EF8-95F5-BB685495DEE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3015" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台秀</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -231,20 +214,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>曾钰琳</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>*</t>
     </r>
     <r>
@@ -334,7 +303,119 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>曾钰林</t>
+      <t>黄瑞豪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜椿祺</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王涵萱</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>封馨雨</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄婧娴</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘宇雯</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任思仪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王煜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈浩东</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +436,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>桌子</t>
+      <t>？</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -369,160 +450,91 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>黄瑞豪</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姜椿祺</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王涵萱</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>封馨雨</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄婧娴</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘宇雯</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>干子洋</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
+      <t>曾哲轶</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑茹方</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邱恩琪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵艺乔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙梓君</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张镇谦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
         <rFont val="华文楷体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陈世航</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>任思仪</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王煜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈浩东</t>
     </r>
     <r>
       <rPr>
@@ -543,7 +555,105 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>？</t>
+      <t>搬运工</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邹杰思</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈嘉仪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐宝宁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闵达姮</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡锦弘</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肖文景</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戴卓妮</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -557,119 +667,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>曾哲轶</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郑茹方</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邱恩琪</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵艺乔</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>徐明哲</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文东峻</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孙梓君</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张镇谦</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈世航</t>
+      <t>林睿希</t>
     </r>
     <r>
       <rPr>
@@ -690,74 +688,60 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>搬运工</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邹杰思</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈嘉仪</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>徐宝宁</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>闵达姮</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈嘉慧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡柏宏</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾哲轶</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵芝瑜</t>
@@ -774,35 +758,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>胡锦弘</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肖文景</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>戴卓妮</t>
+      <t>黄宝杰</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -816,7 +772,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>林睿希</t>
+      <t>刘艺</t>
     </r>
     <r>
       <rPr>
@@ -837,46 +793,431 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>？</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈嘉慧</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>胡柏宏</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
+      <t>电子设备</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张家荟</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗琳娜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任若诗</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邹梓菁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢瑜宣</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邹翰明</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马雯迪</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟丞翔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张子谦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←七</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班→</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢依晴</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林睿希</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾熹泰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋爱玲</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张志榆</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韦傲柔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑宇根</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟华芹</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王艺彤</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杨茜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易宣佑</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文东峻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台秀</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾钰琳</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干子洋</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐明哲</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄一博</t>
@@ -893,35 +1234,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>曾哲轶</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵芝瑜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄宝杰</t>
+      <t>钟承颖</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李亦祁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘静恒</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -935,7 +1276,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>刘艺</t>
+      <t>张宇澄</t>
     </r>
     <r>
       <rPr>
@@ -956,399 +1297,34 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>电子设备</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张家荟</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钟承颖</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罗琳娜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>任若诗</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邹梓菁</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李亦祁</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>谢瑜宣</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邹翰明</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>马雯迪</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘静恒</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钟丞翔</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张子谦</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←七</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
+      <t>桌子</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈世杭</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>七</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班→</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>谢依晴</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>林睿希</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>曾熹泰</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宋爱玲</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张志榆</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>韦傲柔</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郑宇根</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钟华芹</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王艺彤</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨茜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>易宣佑</t>
+      <t>*</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1446,22 +1422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1471,6 +1432,20 @@
       <color rgb="FF9C5700"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1532,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,19 +1518,25 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1843,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1857,137 +1838,137 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -1996,169 +1977,185 @@
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2166,16 +2163,18 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -2184,13 +2183,17 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -2199,27 +2202,31 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿神的Bob君\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520584E-448A-4B33-8445-4F1BAA46D7AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF58DD0A-BDFC-4F18-9C8C-5A80D07767CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1271,20 +1271,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王昊宇</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color rgb="FF9C0006"/>
         <rFont val="华文楷体"/>
         <family val="3"/>
@@ -1414,6 +1400,10 @@
       </rPr>
       <t>#</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴振雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1906,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1932,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2002,7 +1992,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -2037,7 +2027,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>72</v>
@@ -2070,7 +2060,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
@@ -2272,8 +2262,8 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>76</v>
+      <c r="D13" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>49</v>
@@ -2294,7 +2284,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>49</v>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿神的Bob君\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61C5A05-26DE-4E37-B707-C2C958AC1CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA2817C-5164-40DE-91AF-336B44CB22CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3075" windowWidth="21600" windowHeight="11370" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
+    <workbookView xWindow="-8460" yWindow="1815" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
-  <si>
-    <t>T台秀</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>《假名媛》</t>
   </si>
@@ -60,18 +57,12 @@
     <t>《夜宴风泊》</t>
   </si>
   <si>
-    <t>曾钰琳</t>
-  </si>
-  <si>
     <t>*陈妍*</t>
   </si>
   <si>
     <t>*钟锦碧*</t>
   </si>
   <si>
-    <t>*杨伊菲*</t>
-  </si>
-  <si>
     <t>张宇澄 桌子</t>
   </si>
   <si>
@@ -93,185 +84,212 @@
     <t>刘宇雯</t>
   </si>
   <si>
+    <t>*陈世杭*</t>
+  </si>
+  <si>
+    <t>任思仪</t>
+  </si>
+  <si>
+    <t>陈浩东 打杂</t>
+  </si>
+  <si>
+    <t>曾哲轶</t>
+  </si>
+  <si>
+    <t>郑茹方</t>
+  </si>
+  <si>
+    <t>邱恩琪</t>
+  </si>
+  <si>
+    <t>赵艺乔</t>
+  </si>
+  <si>
+    <t>文东峻</t>
+  </si>
+  <si>
+    <t>孙梓君</t>
+  </si>
+  <si>
+    <t>邹翰明 搬运工</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 付忆瑾</t>
+  </si>
+  <si>
+    <t>邹杰思</t>
+  </si>
+  <si>
+    <t>陈嘉仪</t>
+  </si>
+  <si>
+    <t>徐宝宁</t>
+  </si>
+  <si>
+    <t>闵达姮</t>
+  </si>
+  <si>
+    <t>赵芝瑜</t>
+  </si>
+  <si>
+    <t>胡锦弘</t>
+  </si>
+  <si>
+    <t>肖文景</t>
+  </si>
+  <si>
+    <t>林睿希 打杂</t>
+  </si>
+  <si>
+    <t>胡柏宏</t>
+  </si>
+  <si>
+    <t>刘艺 电子设备</t>
+  </si>
+  <si>
+    <t>张家荟</t>
+  </si>
+  <si>
+    <t>黄宝杰</t>
+  </si>
+  <si>
+    <t>罗琳娜</t>
+  </si>
+  <si>
+    <t>←七5班</t>
+  </si>
+  <si>
+    <t>七6班→</t>
+  </si>
+  <si>
+    <t>邹梓菁</t>
+  </si>
+  <si>
+    <t>谢瑜宣</t>
+  </si>
+  <si>
+    <t>马雯迪</t>
+  </si>
+  <si>
+    <t>钟丞翔</t>
+  </si>
+  <si>
+    <t>谢依晴</t>
+  </si>
+  <si>
+    <t>林睿希</t>
+  </si>
+  <si>
+    <t>宋爱玲</t>
+  </si>
+  <si>
+    <t>张志榆</t>
+  </si>
+  <si>
+    <t>郑宇根</t>
+  </si>
+  <si>
+    <t>冼健恒</t>
+  </si>
+  <si>
+    <t>王艺彤</t>
+  </si>
+  <si>
+    <t>杨茜</t>
+  </si>
+  <si>
+    <t>易宣佑</t>
+  </si>
+  <si>
+    <t>《Dinga》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵艺乔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟锦碧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付忆瑾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘静恒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任若诗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张子谦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾熹泰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴振雄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《命案》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹翰明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>干子洋</t>
-  </si>
-  <si>
-    <t>*陈世杭*</t>
-  </si>
-  <si>
-    <t>任思仪</t>
-  </si>
-  <si>
-    <t>王煜</t>
-  </si>
-  <si>
-    <t>陈浩东 打杂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曾哲轶</t>
-  </si>
-  <si>
-    <t>郑茹方</t>
-  </si>
-  <si>
-    <t>邱恩琪</t>
-  </si>
-  <si>
-    <t>赵艺乔</t>
-  </si>
-  <si>
-    <t>徐明哲</t>
-  </si>
-  <si>
-    <t>文东峻</t>
-  </si>
-  <si>
-    <t>孙梓君</t>
-  </si>
-  <si>
-    <t>张镇谦</t>
-  </si>
-  <si>
-    <t>邹翰明 搬运工</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 付忆瑾</t>
-  </si>
-  <si>
-    <t>邹杰思</t>
-  </si>
-  <si>
-    <t>陈嘉仪</t>
-  </si>
-  <si>
-    <t>徐宝宁</t>
-  </si>
-  <si>
-    <t>闵达姮</t>
-  </si>
-  <si>
-    <t>赵芝瑜</t>
-  </si>
-  <si>
-    <t>胡锦弘</t>
-  </si>
-  <si>
-    <t>肖文景</t>
-  </si>
-  <si>
-    <t>戴卓妮</t>
-  </si>
-  <si>
-    <t>林睿希 打杂</t>
-  </si>
-  <si>
-    <t>陈嘉慧</t>
-  </si>
-  <si>
-    <t>胡柏宏</t>
-  </si>
-  <si>
-    <t>黄一博</t>
-  </si>
-  <si>
-    <t>钟华芹</t>
-  </si>
-  <si>
-    <t>刘艺 电子设备</t>
-  </si>
-  <si>
-    <t>张家荟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昊宇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢瑜宣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钟承颖</t>
-  </si>
-  <si>
-    <t>黄宝杰</t>
-  </si>
-  <si>
-    <t>罗琳娜</t>
-  </si>
-  <si>
-    <t>任若诗</t>
-  </si>
-  <si>
-    <t>←七5班</t>
-  </si>
-  <si>
-    <t>七6班→</t>
-  </si>
-  <si>
-    <t>邹梓菁</t>
-  </si>
-  <si>
-    <t>李亦祁</t>
-  </si>
-  <si>
-    <t>谢瑜宣</t>
-  </si>
-  <si>
-    <t>邹翰明</t>
-  </si>
-  <si>
-    <t>马雯迪</t>
-  </si>
-  <si>
-    <t>刘静恒</t>
-  </si>
-  <si>
-    <t>钟丞翔</t>
-  </si>
-  <si>
-    <t>张子谦</t>
-  </si>
-  <si>
-    <t>谢依晴</t>
-  </si>
-  <si>
-    <t>林睿希</t>
-  </si>
-  <si>
-    <t>曾熹泰</t>
-  </si>
-  <si>
-    <t>宋爱玲</t>
-  </si>
-  <si>
-    <t>张志榆</t>
-  </si>
-  <si>
-    <t>韦傲柔</t>
-  </si>
-  <si>
-    <t>郑宇根</t>
-  </si>
-  <si>
-    <t>冼健恒</t>
-  </si>
-  <si>
-    <t>钟锦碧</t>
-  </si>
-  <si>
-    <t>王艺彤</t>
-  </si>
-  <si>
-    <t>吴振雄</t>
-  </si>
-  <si>
-    <t>杨茜</t>
-  </si>
-  <si>
-    <t>陈妍</t>
-  </si>
-  <si>
-    <t>易宣佑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世杭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《世间……相扣》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>七年级五班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>各大老师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +336,14 @@
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -381,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +421,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,409 +743,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695FA89-1606-41F1-B213-4102433E5AED}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="13" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>62</v>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Bilibili-Bob--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA2817C-5164-40DE-91AF-336B44CB22CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6C7DB-E15F-47D0-8EC6-C29D8958CE24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8460" yWindow="1815" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
-  <si>
-    <t>《假名媛》</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+  <si>
+    <t>T台秀</t>
   </si>
   <si>
     <t>《追光者》</t>
@@ -57,12 +57,18 @@
     <t>《夜宴风泊》</t>
   </si>
   <si>
+    <t>曾钰琳</t>
+  </si>
+  <si>
     <t>*陈妍*</t>
   </si>
   <si>
     <t>*钟锦碧*</t>
   </si>
   <si>
+    <t>*杨伊菲*</t>
+  </si>
+  <si>
     <t>张宇澄 桌子</t>
   </si>
   <si>
@@ -84,12 +90,15 @@
     <t>刘宇雯</t>
   </si>
   <si>
-    <t>*陈世杭*</t>
+    <t>干子洋</t>
   </si>
   <si>
     <t>任思仪</t>
   </si>
   <si>
+    <t>王煜</t>
+  </si>
+  <si>
     <t>陈浩东 打杂</t>
   </si>
   <si>
@@ -105,12 +114,15 @@
     <t>赵艺乔</t>
   </si>
   <si>
-    <t>文东峻</t>
+    <t>徐明哲</t>
   </si>
   <si>
     <t>孙梓君</t>
   </si>
   <si>
+    <t>张镇谦</t>
+  </si>
+  <si>
     <t>邹翰明 搬运工</t>
   </si>
   <si>
@@ -132,112 +144,109 @@
     <t>赵芝瑜</t>
   </si>
   <si>
-    <t>胡锦弘</t>
-  </si>
-  <si>
     <t>肖文景</t>
   </si>
   <si>
+    <t>戴卓妮</t>
+  </si>
+  <si>
     <t>林睿希 打杂</t>
   </si>
   <si>
+    <t>陈嘉慧</t>
+  </si>
+  <si>
     <t>胡柏宏</t>
   </si>
   <si>
+    <t>黄一博</t>
+  </si>
+  <si>
+    <t>钟华芹</t>
+  </si>
+  <si>
     <t>刘艺 电子设备</t>
   </si>
   <si>
     <t>张家荟</t>
   </si>
   <si>
-    <t>黄宝杰</t>
+    <t>钟承颖</t>
+  </si>
+  <si>
+    <t>任若诗</t>
+  </si>
+  <si>
+    <t>←七5班</t>
+  </si>
+  <si>
+    <t>七6班→</t>
+  </si>
+  <si>
+    <t>邹梓菁</t>
+  </si>
+  <si>
+    <t>李亦祁</t>
+  </si>
+  <si>
+    <t>谢瑜宣</t>
+  </si>
+  <si>
+    <t>邹翰明</t>
+  </si>
+  <si>
+    <t>马雯迪</t>
+  </si>
+  <si>
+    <t>刘静恒</t>
+  </si>
+  <si>
+    <t>张子谦</t>
+  </si>
+  <si>
+    <t>谢依晴</t>
+  </si>
+  <si>
+    <t>林睿希</t>
+  </si>
+  <si>
+    <t>曾熹泰</t>
+  </si>
+  <si>
+    <t>宋爱玲</t>
+  </si>
+  <si>
+    <t>张志榆</t>
+  </si>
+  <si>
+    <t>韦傲柔</t>
+  </si>
+  <si>
+    <t>郑宇根</t>
+  </si>
+  <si>
+    <t>冼健恒</t>
+  </si>
+  <si>
+    <t>钟锦碧</t>
+  </si>
+  <si>
+    <t>王艺彤</t>
+  </si>
+  <si>
+    <t>吴振雄</t>
+  </si>
+  <si>
+    <t>杨茜</t>
+  </si>
+  <si>
+    <t>陈妍</t>
+  </si>
+  <si>
+    <t>易宣佑</t>
   </si>
   <si>
     <t>罗琳娜</t>
-  </si>
-  <si>
-    <t>←七5班</t>
-  </si>
-  <si>
-    <t>七6班→</t>
-  </si>
-  <si>
-    <t>邹梓菁</t>
-  </si>
-  <si>
-    <t>谢瑜宣</t>
-  </si>
-  <si>
-    <t>马雯迪</t>
-  </si>
-  <si>
-    <t>钟丞翔</t>
-  </si>
-  <si>
-    <t>谢依晴</t>
-  </si>
-  <si>
-    <t>林睿希</t>
-  </si>
-  <si>
-    <t>宋爱玲</t>
-  </si>
-  <si>
-    <t>张志榆</t>
-  </si>
-  <si>
-    <t>郑宇根</t>
-  </si>
-  <si>
-    <t>冼健恒</t>
-  </si>
-  <si>
-    <t>王艺彤</t>
-  </si>
-  <si>
-    <t>杨茜</t>
-  </si>
-  <si>
-    <t>易宣佑</t>
-  </si>
-  <si>
-    <t>《Dinga》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵艺乔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟锦碧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>付忆瑾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘静恒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任若诗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张子谦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾熹泰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴振雄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈妍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -245,43 +254,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>邹翰明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>干子洋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾哲轶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王昊宇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢瑜宣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟承颖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>陈世杭</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>《世间……相扣》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七年级五班</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各大老师</t>
+    <t>王昊宇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,14 +313,6 @@
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -407,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,9 +390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,433 +709,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695FA89-1606-41F1-B213-4102433E5AED}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Bilibili-Bob--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6C7DB-E15F-47D0-8EC6-C29D8958CE24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB1809-D989-4E89-A572-AF5E1B2995E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
+    <workbookView xWindow="-8550" yWindow="2595" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
-  <si>
-    <t>T台秀</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>《追光者》</t>
   </si>
@@ -57,18 +54,9 @@
     <t>《夜宴风泊》</t>
   </si>
   <si>
-    <t>曾钰琳</t>
-  </si>
-  <si>
-    <t>*陈妍*</t>
-  </si>
-  <si>
     <t>*钟锦碧*</t>
   </si>
   <si>
-    <t>*杨伊菲*</t>
-  </si>
-  <si>
     <t>张宇澄 桌子</t>
   </si>
   <si>
@@ -90,167 +78,149 @@
     <t>刘宇雯</t>
   </si>
   <si>
+    <t>任思仪</t>
+  </si>
+  <si>
+    <t>陈浩东 打杂</t>
+  </si>
+  <si>
+    <t>郑茹方</t>
+  </si>
+  <si>
+    <t>邱恩琪</t>
+  </si>
+  <si>
+    <t>赵艺乔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 付忆瑾</t>
+  </si>
+  <si>
+    <t>邹杰思</t>
+  </si>
+  <si>
+    <t>陈嘉仪</t>
+  </si>
+  <si>
+    <t>徐宝宁</t>
+  </si>
+  <si>
+    <t>闵达姮</t>
+  </si>
+  <si>
+    <t>赵芝瑜</t>
+  </si>
+  <si>
+    <t>肖文景</t>
+  </si>
+  <si>
+    <t>胡柏宏</t>
+  </si>
+  <si>
+    <t>刘艺 电子设备</t>
+  </si>
+  <si>
+    <t>张家荟</t>
+  </si>
+  <si>
+    <t>罗琳娜</t>
+  </si>
+  <si>
+    <t>←七5班</t>
+  </si>
+  <si>
+    <t>七6班→</t>
+  </si>
+  <si>
+    <t>邹梓菁</t>
+  </si>
+  <si>
+    <t>马雯迪</t>
+  </si>
+  <si>
+    <t>谢依晴</t>
+  </si>
+  <si>
+    <t>宋爱玲</t>
+  </si>
+  <si>
+    <t>郑宇根</t>
+  </si>
+  <si>
+    <t>王艺彤</t>
+  </si>
+  <si>
+    <t>杨茜</t>
+  </si>
+  <si>
+    <t>易宣佑</t>
+  </si>
+  <si>
+    <t>《Dinga》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵艺乔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟锦碧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付忆瑾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘静恒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任若诗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张子谦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾熹泰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴振雄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《命案》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹翰明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>干子洋</t>
-  </si>
-  <si>
-    <t>任思仪</t>
-  </si>
-  <si>
-    <t>王煜</t>
-  </si>
-  <si>
-    <t>陈浩东 打杂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>曾哲轶</t>
-  </si>
-  <si>
-    <t>郑茹方</t>
-  </si>
-  <si>
-    <t>邱恩琪</t>
-  </si>
-  <si>
-    <t>赵艺乔</t>
-  </si>
-  <si>
-    <t>徐明哲</t>
-  </si>
-  <si>
-    <t>孙梓君</t>
-  </si>
-  <si>
-    <t>张镇谦</t>
-  </si>
-  <si>
-    <t>邹翰明 搬运工</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 付忆瑾</t>
-  </si>
-  <si>
-    <t>邹杰思</t>
-  </si>
-  <si>
-    <t>陈嘉仪</t>
-  </si>
-  <si>
-    <t>徐宝宁</t>
-  </si>
-  <si>
-    <t>闵达姮</t>
-  </si>
-  <si>
-    <t>赵芝瑜</t>
-  </si>
-  <si>
-    <t>肖文景</t>
-  </si>
-  <si>
-    <t>戴卓妮</t>
-  </si>
-  <si>
-    <t>林睿希 打杂</t>
-  </si>
-  <si>
-    <t>陈嘉慧</t>
-  </si>
-  <si>
-    <t>胡柏宏</t>
-  </si>
-  <si>
-    <t>黄一博</t>
-  </si>
-  <si>
-    <t>钟华芹</t>
-  </si>
-  <si>
-    <t>刘艺 电子设备</t>
-  </si>
-  <si>
-    <t>张家荟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昊宇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢瑜宣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钟承颖</t>
-  </si>
-  <si>
-    <t>任若诗</t>
-  </si>
-  <si>
-    <t>←七5班</t>
-  </si>
-  <si>
-    <t>七6班→</t>
-  </si>
-  <si>
-    <t>邹梓菁</t>
-  </si>
-  <si>
-    <t>李亦祁</t>
-  </si>
-  <si>
-    <t>谢瑜宣</t>
-  </si>
-  <si>
-    <t>邹翰明</t>
-  </si>
-  <si>
-    <t>马雯迪</t>
-  </si>
-  <si>
-    <t>刘静恒</t>
-  </si>
-  <si>
-    <t>张子谦</t>
-  </si>
-  <si>
-    <t>谢依晴</t>
-  </si>
-  <si>
-    <t>林睿希</t>
-  </si>
-  <si>
-    <t>曾熹泰</t>
-  </si>
-  <si>
-    <t>宋爱玲</t>
-  </si>
-  <si>
-    <t>张志榆</t>
-  </si>
-  <si>
-    <t>韦傲柔</t>
-  </si>
-  <si>
-    <t>郑宇根</t>
-  </si>
-  <si>
-    <t>冼健恒</t>
-  </si>
-  <si>
-    <t>钟锦碧</t>
-  </si>
-  <si>
-    <t>王艺彤</t>
-  </si>
-  <si>
-    <t>吴振雄</t>
-  </si>
-  <si>
-    <t>杨茜</t>
-  </si>
-  <si>
-    <t>陈妍</t>
-  </si>
-  <si>
-    <t>易宣佑</t>
-  </si>
-  <si>
-    <t>罗琳娜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《命案》</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -258,7 +228,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>王昊宇</t>
+    <t>《世间……相扣》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>七年级五班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《二泉映月》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵子淳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋美丽</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +299,14 @@
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -376,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +384,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,409 +706,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695FA89-1606-41F1-B213-4102433E5AED}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="13" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB1809-D989-4E89-A572-AF5E1B2995E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DEBAD-34FC-4B20-8201-ECEF067397E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8550" yWindow="2595" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="2940" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>《追光者》</t>
   </si>
@@ -45,9 +45,6 @@
     <t>《哈利波特》</t>
   </si>
   <si>
-    <t>《Peaty Saveage》</t>
-  </si>
-  <si>
     <t>《皇帝的新装》</t>
   </si>
   <si>
@@ -96,155 +93,181 @@
     <t xml:space="preserve"> 付忆瑾</t>
   </si>
   <si>
+    <t>陈嘉仪</t>
+  </si>
+  <si>
+    <t>徐宝宁</t>
+  </si>
+  <si>
+    <t>闵达姮</t>
+  </si>
+  <si>
+    <t>赵芝瑜</t>
+  </si>
+  <si>
+    <t>肖文景</t>
+  </si>
+  <si>
+    <t>胡柏宏</t>
+  </si>
+  <si>
+    <t>刘艺 电子设备</t>
+  </si>
+  <si>
+    <t>罗琳娜</t>
+  </si>
+  <si>
+    <t>←七5班</t>
+  </si>
+  <si>
+    <t>七6班→</t>
+  </si>
+  <si>
+    <t>邹梓菁</t>
+  </si>
+  <si>
+    <t>马雯迪</t>
+  </si>
+  <si>
+    <t>谢依晴</t>
+  </si>
+  <si>
+    <t>宋爱玲</t>
+  </si>
+  <si>
+    <t>郑宇根</t>
+  </si>
+  <si>
+    <t>王艺彤</t>
+  </si>
+  <si>
+    <t>杨茜</t>
+  </si>
+  <si>
+    <t>易宣佑</t>
+  </si>
+  <si>
+    <t>《Dinga》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵艺乔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟锦碧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付忆瑾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘静恒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任若诗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张子谦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾熹泰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴振雄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《命案》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹翰明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干子洋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾哲轶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王昊宇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢瑜宣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟承颖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世杭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《世间……相扣》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>七年级五班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《二泉映月》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵子淳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋美丽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家芸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉慧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《DDU DUDU》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>邹杰思</t>
-  </si>
-  <si>
-    <t>陈嘉仪</t>
-  </si>
-  <si>
-    <t>徐宝宁</t>
-  </si>
-  <si>
-    <t>闵达姮</t>
-  </si>
-  <si>
-    <t>赵芝瑜</t>
-  </si>
-  <si>
-    <t>肖文景</t>
-  </si>
-  <si>
-    <t>胡柏宏</t>
-  </si>
-  <si>
-    <t>刘艺 电子设备</t>
-  </si>
-  <si>
-    <t>张家荟</t>
-  </si>
-  <si>
-    <t>罗琳娜</t>
-  </si>
-  <si>
-    <t>←七5班</t>
-  </si>
-  <si>
-    <t>七6班→</t>
-  </si>
-  <si>
-    <t>邹梓菁</t>
-  </si>
-  <si>
-    <t>马雯迪</t>
-  </si>
-  <si>
-    <t>谢依晴</t>
-  </si>
-  <si>
-    <t>宋爱玲</t>
-  </si>
-  <si>
-    <t>郑宇根</t>
-  </si>
-  <si>
-    <t>王艺彤</t>
-  </si>
-  <si>
-    <t>杨茜</t>
-  </si>
-  <si>
-    <t>易宣佑</t>
-  </si>
-  <si>
-    <t>《Dinga》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵艺乔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟锦碧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>付忆瑾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘静恒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任若诗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张子谦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾熹泰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴振雄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈妍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《命案》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹翰明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>干子洋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾哲轶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王昊宇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢瑜宣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟承颖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈世杭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《世间……相扣》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七年级五班</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《二泉映月》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵子淳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋美丽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖家琛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫羽旺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李正扬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Pink Moon》</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +410,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,33 +732,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695FA89-1606-41F1-B213-4102433E5AED}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="14" width="13.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -747,372 +773,434 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/NB.xlsx
+++ b/NB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DEBAD-34FC-4B20-8201-ECEF067397E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615942A9-5D6D-48E5-BDAF-0B3EB06CF90F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="2940" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{8DC488DF-452E-4C0A-A427-0ABFB741336A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>《追光者》</t>
   </si>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>《二泉映月》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>赵子淳</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -268,6 +264,50 @@
   </si>
   <si>
     <t>《Pink Moon》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《黄河颂》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李昀杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏伟涛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王青粟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>范菁宸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王荣焕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛煜航</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟民</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄思源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冼永峰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《赛马》</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -732,19 +772,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695FA89-1606-41F1-B213-4102433E5AED}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="13.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
@@ -782,13 +822,16 @@
         <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -826,13 +869,16 @@
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -846,7 +892,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
@@ -873,8 +919,11 @@
       <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -899,7 +948,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -907,10 +956,13 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -932,7 +984,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -941,8 +993,11 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -966,13 +1021,16 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -999,8 +1057,11 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1016,7 +1077,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
@@ -1025,8 +1086,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1047,8 +1111,11 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1069,8 +1136,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1091,8 +1161,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1113,8 +1186,9 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1135,8 +1209,9 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1157,8 +1232,9 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1174,13 +1250,14 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1196,11 +1273,12 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
